--- a/resources/student.xlsx
+++ b/resources/student.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasulu\Documents\UiPath\PivotTableActivity\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B2C7F-93F7-4FB3-981A-9D1283B77651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29E0E7-E0F0-45BB-9C0D-8C4DB573BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Marks" sheetId="1" r:id="rId1"/>
-    <sheet name="Address" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,12 +404,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -819,16 +826,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00C34460-F8BC-43E3-846B-020ADE41E02E}" name="Student_Marks" displayName="Student_Marks" ref="A1:G17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00C34460-F8BC-43E3-846B-020ADE41E02E}" name="Student_Marks" displayName="Student_Marks" ref="A1:G17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G17" xr:uid="{00C34460-F8BC-43E3-846B-020ADE41E02E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{09D84CF5-DC88-4319-8469-03FC95A44745}" name="Roll No." dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{CF90F1A0-AE5B-4712-92AF-480AE42AC045}" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{E43BA2A3-21F0-48D9-A7C7-2014A80DBD3B}" name="Dept" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7609AFC0-ECE2-4B7A-95D7-B5BD904C6450}" name="Sem 1" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{F45E1EA6-ECF6-4D80-A986-2429DD61057F}" name="Sem 2" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{40EA00DE-CB12-443D-B8BA-273510C6DE7F}" name="Sem 3" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{8A20179E-9E2B-42C1-9BB9-697F6BDE0B2F}" name="Avg" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{09D84CF5-DC88-4319-8469-03FC95A44745}" name="Roll No." dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{CF90F1A0-AE5B-4712-92AF-480AE42AC045}" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{E43BA2A3-21F0-48D9-A7C7-2014A80DBD3B}" name="Dept" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{7609AFC0-ECE2-4B7A-95D7-B5BD904C6450}" name="Sem 1" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{F45E1EA6-ECF6-4D80-A986-2429DD61057F}" name="Sem 2" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{40EA00DE-CB12-443D-B8BA-273510C6DE7F}" name="Sem 3" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{8A20179E-9E2B-42C1-9BB9-697F6BDE0B2F}" name="Avg" dataDxfId="9">
       <calculatedColumnFormula>SUM(D2:F2)/3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -837,14 +844,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{484F331D-2FD8-41A7-A60C-8C3407B56C7D}" name="Student_Address" displayName="Student_Address" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{484F331D-2FD8-41A7-A60C-8C3407B56C7D}" name="Student_Address" displayName="Student_Address" ref="A1:E17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:E17" xr:uid="{484F331D-2FD8-41A7-A60C-8C3407B56C7D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05C8841D-45CB-4AC1-BFF9-A78CD0A331B9}" name="Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{259B71CA-E1A4-4107-A4FD-51F10325E9CE}" name="Address" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{426CDB9F-5A5A-4E50-856E-1A38E2FBDA61}" name="Country" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8C28AFC3-F762-4D53-9D96-14257F8E91AB}" name="Email" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9E643ABF-AA28-4B04-896E-D9584BDFCD61}" name="Telephone" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{05C8841D-45CB-4AC1-BFF9-A78CD0A331B9}" name="Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{259B71CA-E1A4-4107-A4FD-51F10325E9CE}" name="Address" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{426CDB9F-5A5A-4E50-856E-1A38E2FBDA61}" name="Country" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8C28AFC3-F762-4D53-9D96-14257F8E91AB}" name="Email" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9E643ABF-AA28-4B04-896E-D9584BDFCD61}" name="Telephone" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1113,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,14 +1133,13 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1011</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1018</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1015</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1020</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1022</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1021</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1010</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>19.333333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1019</v>
       </c>
@@ -1347,8 +1353,9 @@
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1016</v>
       </c>
@@ -1371,8 +1378,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1012</v>
       </c>
@@ -1395,8 +1403,9 @@
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1013</v>
       </c>
@@ -1419,8 +1428,9 @@
         <f t="shared" si="0"/>
         <v>15.333333333333334</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1014</v>
       </c>
@@ -1443,8 +1453,9 @@
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1023</v>
       </c>
@@ -1467,8 +1478,9 @@
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1024</v>
       </c>
@@ -1491,8 +1503,9 @@
         <f>SUM(D15:F15)/3</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1025</v>
       </c>
@@ -1515,8 +1528,9 @@
         <f>SUM(D16:F16)/3</f>
         <v>19.333333333333332</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1017</v>
       </c>
@@ -1539,6 +1553,46 @@
         <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1554,7 +1608,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/student.xlsx
+++ b/resources/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasulu\Documents\UiPath\PivotTableActivity\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29E0E7-E0F0-45BB-9C0D-8C4DB573BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BAE81-8C20-43BD-A771-3C6C7CD60E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="15" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -327,6 +330,27 @@
   </si>
   <si>
     <t>00278942252</t>
+  </si>
+  <si>
+    <t>Sum of Roll No.</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Sem 1</t>
+  </si>
+  <si>
+    <t>Sum of Sem 2</t>
+  </si>
+  <si>
+    <t>Sum of Sem 3</t>
+  </si>
+  <si>
+    <t>Sum of Avg</t>
   </si>
 </sst>
 </file>
@@ -387,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,19 +428,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -825,17 +850,418 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="fasulu" refreshedDate="44735.394932175928" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{E17209B1-7541-4DF0-94C5-6BB0ABA2A28E}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Student_Marks"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Roll No." numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1010" maxValue="1025"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="16">
+        <s v="Ali"/>
+        <s v="Boris"/>
+        <s v="Dialo"/>
+        <s v="Emanual"/>
+        <s v="Fatumata"/>
+        <s v="Kumatsu"/>
+        <s v="Premji"/>
+        <s v="Salman"/>
+        <s v="Sameera"/>
+        <s v="Selvi"/>
+        <s v="Vajpay"/>
+        <s v="Yi"/>
+        <s v="Yi Wong"/>
+        <s v="Garcia"/>
+        <s v="Haroon"/>
+        <s v="Ying"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dept" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Micro Biology"/>
+        <s v="Politics"/>
+        <s v="Mechanical"/>
+        <s v="Socialogy"/>
+        <s v="Current Affairs"/>
+        <s v="Business"/>
+        <s v="Home Science"/>
+        <s v="Language"/>
+        <s v="IT"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sem 1" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="19"/>
+    </cacheField>
+    <cacheField name="Sem 2" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Sem 3" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Avg" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.6666666666666665" maxValue="19.333333333333332"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <n v="1011"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="19"/>
+    <n v="14.666666666666666"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="18"/>
+    <n v="15"/>
+    <n v="18"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3.6666666666666665"/>
+  </r>
+  <r>
+    <n v="1022"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="18"/>
+    <n v="20"/>
+    <n v="16.666666666666668"/>
+  </r>
+  <r>
+    <n v="1021"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="19"/>
+    <n v="20"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="20"/>
+    <n v="19.333333333333332"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="13.333333333333334"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="18"/>
+    <n v="19"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="15"/>
+    <n v="17"/>
+    <n v="18"/>
+    <n v="16.666666666666668"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <x v="10"/>
+    <x v="7"/>
+    <n v="14"/>
+    <n v="13"/>
+    <n v="19"/>
+    <n v="15.333333333333334"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <x v="11"/>
+    <x v="8"/>
+    <n v="17"/>
+    <n v="15"/>
+    <n v="18"/>
+    <n v="16.666666666666668"/>
+  </r>
+  <r>
+    <n v="1023"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="15"/>
+    <n v="18"/>
+    <n v="16.666666666666668"/>
+  </r>
+  <r>
+    <n v="1024"/>
+    <x v="13"/>
+    <x v="5"/>
+    <n v="18"/>
+    <n v="19"/>
+    <n v="20"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <n v="1025"/>
+    <x v="14"/>
+    <x v="7"/>
+    <n v="19"/>
+    <n v="20"/>
+    <n v="19"/>
+    <n v="19.333333333333332"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <x v="15"/>
+    <x v="7"/>
+    <n v="15"/>
+    <n v="10"/>
+    <n v="18"/>
+    <n v="14.333333333333334"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8D9A558-7A75-4098-B483-EEEDE74C0692}" name="tblMarkPivot" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I5:N38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of Roll No." fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sem 1" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sem 2" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sem 3" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Avg" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00C34460-F8BC-43E3-846B-020ADE41E02E}" name="Student_Marks" displayName="Student_Marks" ref="A1:G17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00C34460-F8BC-43E3-846B-020ADE41E02E}" name="Student_Marks" displayName="Student_Marks" ref="A1:G17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:G17" xr:uid="{00C34460-F8BC-43E3-846B-020ADE41E02E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{09D84CF5-DC88-4319-8469-03FC95A44745}" name="Roll No." dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{CF90F1A0-AE5B-4712-92AF-480AE42AC045}" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{E43BA2A3-21F0-48D9-A7C7-2014A80DBD3B}" name="Dept" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{7609AFC0-ECE2-4B7A-95D7-B5BD904C6450}" name="Sem 1" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{F45E1EA6-ECF6-4D80-A986-2429DD61057F}" name="Sem 2" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{40EA00DE-CB12-443D-B8BA-273510C6DE7F}" name="Sem 3" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{8A20179E-9E2B-42C1-9BB9-697F6BDE0B2F}" name="Avg" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{09D84CF5-DC88-4319-8469-03FC95A44745}" name="Roll No." dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CF90F1A0-AE5B-4712-92AF-480AE42AC045}" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E43BA2A3-21F0-48D9-A7C7-2014A80DBD3B}" name="Dept" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{7609AFC0-ECE2-4B7A-95D7-B5BD904C6450}" name="Sem 1" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{F45E1EA6-ECF6-4D80-A986-2429DD61057F}" name="Sem 2" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{40EA00DE-CB12-443D-B8BA-273510C6DE7F}" name="Sem 3" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{8A20179E-9E2B-42C1-9BB9-697F6BDE0B2F}" name="Avg" dataDxfId="7">
       <calculatedColumnFormula>SUM(D2:F2)/3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -844,14 +1270,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{484F331D-2FD8-41A7-A60C-8C3407B56C7D}" name="Student_Address" displayName="Student_Address" ref="A1:E17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{484F331D-2FD8-41A7-A60C-8C3407B56C7D}" name="Student_Address" displayName="Student_Address" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E17" xr:uid="{484F331D-2FD8-41A7-A60C-8C3407B56C7D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05C8841D-45CB-4AC1-BFF9-A78CD0A331B9}" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{259B71CA-E1A4-4107-A4FD-51F10325E9CE}" name="Address" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{426CDB9F-5A5A-4E50-856E-1A38E2FBDA61}" name="Country" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8C28AFC3-F762-4D53-9D96-14257F8E91AB}" name="Email" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9E643ABF-AA28-4B04-896E-D9584BDFCD61}" name="Telephone" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{05C8841D-45CB-4AC1-BFF9-A78CD0A331B9}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{259B71CA-E1A4-4107-A4FD-51F10325E9CE}" name="Address" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{426CDB9F-5A5A-4E50-856E-1A38E2FBDA61}" name="Country" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8C28AFC3-F762-4D53-9D96-14257F8E91AB}" name="Email" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9E643ABF-AA28-4B04-896E-D9584BDFCD61}" name="Telephone" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1120,7 +1546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
@@ -1133,10 +1559,10 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1257,6 +1683,24 @@
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
+      <c r="I5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1281,6 +1725,24 @@
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
+      <c r="I6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1011</v>
+      </c>
+      <c r="K6" s="10">
+        <v>18</v>
+      </c>
+      <c r="L6" s="10">
+        <v>18</v>
+      </c>
+      <c r="M6" s="10">
+        <v>18</v>
+      </c>
+      <c r="N6" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1305,6 +1767,24 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="I7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1011</v>
+      </c>
+      <c r="K7" s="10">
+        <v>18</v>
+      </c>
+      <c r="L7" s="10">
+        <v>18</v>
+      </c>
+      <c r="M7" s="10">
+        <v>18</v>
+      </c>
+      <c r="N7" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1329,6 +1809,24 @@
         <f t="shared" si="0"/>
         <v>19.333333333333332</v>
       </c>
+      <c r="I8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1018</v>
+      </c>
+      <c r="K8" s="10">
+        <v>10</v>
+      </c>
+      <c r="L8" s="10">
+        <v>15</v>
+      </c>
+      <c r="M8" s="10">
+        <v>19</v>
+      </c>
+      <c r="N8" s="10">
+        <v>14.666666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1353,7 +1851,24 @@
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="N9" s="10"/>
+      <c r="I9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1018</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+      <c r="L9" s="10">
+        <v>15</v>
+      </c>
+      <c r="M9" s="10">
+        <v>19</v>
+      </c>
+      <c r="N9" s="10">
+        <v>14.666666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1378,7 +1893,24 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N10" s="10"/>
+      <c r="I10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1015</v>
+      </c>
+      <c r="K10" s="10">
+        <v>18</v>
+      </c>
+      <c r="L10" s="10">
+        <v>15</v>
+      </c>
+      <c r="M10" s="10">
+        <v>18</v>
+      </c>
+      <c r="N10" s="10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1403,7 +1935,24 @@
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="N11" s="10"/>
+      <c r="I11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1015</v>
+      </c>
+      <c r="K11" s="10">
+        <v>18</v>
+      </c>
+      <c r="L11" s="10">
+        <v>15</v>
+      </c>
+      <c r="M11" s="10">
+        <v>18</v>
+      </c>
+      <c r="N11" s="10">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1428,7 +1977,24 @@
         <f t="shared" si="0"/>
         <v>15.333333333333334</v>
       </c>
-      <c r="N12" s="10"/>
+      <c r="I12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1020</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
+      <c r="L12" s="10">
+        <v>5</v>
+      </c>
+      <c r="M12" s="10">
+        <v>4</v>
+      </c>
+      <c r="N12" s="10">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1453,7 +2019,24 @@
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="N13" s="10"/>
+      <c r="I13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1020</v>
+      </c>
+      <c r="K13" s="10">
+        <v>2</v>
+      </c>
+      <c r="L13" s="10">
+        <v>5</v>
+      </c>
+      <c r="M13" s="10">
+        <v>4</v>
+      </c>
+      <c r="N13" s="10">
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1478,7 +2061,24 @@
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="I14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1022</v>
+      </c>
+      <c r="K14" s="10">
+        <v>12</v>
+      </c>
+      <c r="L14" s="10">
+        <v>18</v>
+      </c>
+      <c r="M14" s="10">
+        <v>20</v>
+      </c>
+      <c r="N14" s="10">
+        <v>16.666666666666668</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1503,7 +2103,24 @@
         <f>SUM(D15:F15)/3</f>
         <v>19</v>
       </c>
-      <c r="N15" s="10"/>
+      <c r="I15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1022</v>
+      </c>
+      <c r="K15" s="10">
+        <v>12</v>
+      </c>
+      <c r="L15" s="10">
+        <v>18</v>
+      </c>
+      <c r="M15" s="10">
+        <v>20</v>
+      </c>
+      <c r="N15" s="10">
+        <v>16.666666666666668</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1528,7 +2145,24 @@
         <f>SUM(D16:F16)/3</f>
         <v>19.333333333333332</v>
       </c>
-      <c r="N16" s="10"/>
+      <c r="I16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1024</v>
+      </c>
+      <c r="K16" s="10">
+        <v>18</v>
+      </c>
+      <c r="L16" s="10">
+        <v>19</v>
+      </c>
+      <c r="M16" s="10">
+        <v>20</v>
+      </c>
+      <c r="N16" s="10">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1553,52 +2187,450 @@
         <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
-      <c r="N17" s="10"/>
+      <c r="I17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1024</v>
+      </c>
+      <c r="K17" s="10">
+        <v>18</v>
+      </c>
+      <c r="L17" s="10">
+        <v>19</v>
+      </c>
+      <c r="M17" s="10">
+        <v>20</v>
+      </c>
+      <c r="N17" s="10">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N18" s="10"/>
+      <c r="I18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1025</v>
+      </c>
+      <c r="K18" s="10">
+        <v>19</v>
+      </c>
+      <c r="L18" s="10">
+        <v>20</v>
+      </c>
+      <c r="M18" s="10">
+        <v>19</v>
+      </c>
+      <c r="N18" s="10">
+        <v>19.333333333333332</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="10"/>
+      <c r="I19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1025</v>
+      </c>
+      <c r="K19" s="10">
+        <v>19</v>
+      </c>
+      <c r="L19" s="10">
+        <v>20</v>
+      </c>
+      <c r="M19" s="10">
+        <v>19</v>
+      </c>
+      <c r="N19" s="10">
+        <v>19.333333333333332</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N20" s="10"/>
+      <c r="I20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1021</v>
+      </c>
+      <c r="K20" s="10">
+        <v>15</v>
+      </c>
+      <c r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10">
+        <v>20</v>
+      </c>
+      <c r="N20" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N21" s="10"/>
+      <c r="I21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1021</v>
+      </c>
+      <c r="K21" s="10">
+        <v>15</v>
+      </c>
+      <c r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="10">
+        <v>20</v>
+      </c>
+      <c r="N21" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N22" s="10"/>
+      <c r="I22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1010</v>
+      </c>
+      <c r="K22" s="10">
+        <v>19</v>
+      </c>
+      <c r="L22" s="10">
+        <v>19</v>
+      </c>
+      <c r="M22" s="10">
+        <v>20</v>
+      </c>
+      <c r="N22" s="10">
+        <v>19.333333333333332</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N23" s="10"/>
+      <c r="I23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1010</v>
+      </c>
+      <c r="K23" s="10">
+        <v>19</v>
+      </c>
+      <c r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10">
+        <v>20</v>
+      </c>
+      <c r="N23" s="10">
+        <v>19.333333333333332</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N24" s="10"/>
+      <c r="I24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1019</v>
+      </c>
+      <c r="K24" s="10">
+        <v>12</v>
+      </c>
+      <c r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10">
+        <v>15</v>
+      </c>
+      <c r="N24" s="10">
+        <v>13.333333333333334</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N25" s="10"/>
+      <c r="I25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1019</v>
+      </c>
+      <c r="K25" s="10">
+        <v>12</v>
+      </c>
+      <c r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10">
+        <v>15</v>
+      </c>
+      <c r="N25" s="10">
+        <v>13.333333333333334</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N26" s="10"/>
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1016</v>
+      </c>
+      <c r="K26" s="10">
+        <v>17</v>
+      </c>
+      <c r="L26" s="10">
+        <v>18</v>
+      </c>
+      <c r="M26" s="10">
+        <v>19</v>
+      </c>
+      <c r="N26" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N27" s="10"/>
+      <c r="I27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1016</v>
+      </c>
+      <c r="K27" s="10">
+        <v>17</v>
+      </c>
+      <c r="L27" s="10">
+        <v>18</v>
+      </c>
+      <c r="M27" s="10">
+        <v>19</v>
+      </c>
+      <c r="N27" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N28" s="10"/>
+      <c r="I28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1012</v>
+      </c>
+      <c r="K28" s="10">
+        <v>15</v>
+      </c>
+      <c r="L28" s="10">
+        <v>17</v>
+      </c>
+      <c r="M28" s="10">
+        <v>18</v>
+      </c>
+      <c r="N28" s="10">
+        <v>16.666666666666668</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N29" s="10"/>
+      <c r="I29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1012</v>
+      </c>
+      <c r="K29" s="10">
+        <v>15</v>
+      </c>
+      <c r="L29" s="10">
+        <v>17</v>
+      </c>
+      <c r="M29" s="10">
+        <v>18</v>
+      </c>
+      <c r="N29" s="10">
+        <v>16.666666666666668</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N30" s="10"/>
+      <c r="I30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K30" s="10">
+        <v>14</v>
+      </c>
+      <c r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10">
+        <v>19</v>
+      </c>
+      <c r="N30" s="10">
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1013</v>
+      </c>
+      <c r="K31" s="10">
+        <v>14</v>
+      </c>
+      <c r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10">
+        <v>19</v>
+      </c>
+      <c r="N31" s="10">
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1014</v>
+      </c>
+      <c r="K32" s="10">
+        <v>17</v>
+      </c>
+      <c r="L32" s="10">
+        <v>15</v>
+      </c>
+      <c r="M32" s="10">
+        <v>18</v>
+      </c>
+      <c r="N32" s="10">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1014</v>
+      </c>
+      <c r="K33" s="10">
+        <v>17</v>
+      </c>
+      <c r="L33" s="10">
+        <v>15</v>
+      </c>
+      <c r="M33" s="10">
+        <v>18</v>
+      </c>
+      <c r="N33" s="10">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1023</v>
+      </c>
+      <c r="K34" s="10">
+        <v>17</v>
+      </c>
+      <c r="L34" s="10">
+        <v>15</v>
+      </c>
+      <c r="M34" s="10">
+        <v>18</v>
+      </c>
+      <c r="N34" s="10">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1023</v>
+      </c>
+      <c r="K35" s="10">
+        <v>17</v>
+      </c>
+      <c r="L35" s="10">
+        <v>15</v>
+      </c>
+      <c r="M35" s="10">
+        <v>18</v>
+      </c>
+      <c r="N35" s="10">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1017</v>
+      </c>
+      <c r="K36" s="10">
+        <v>15</v>
+      </c>
+      <c r="L36" s="10">
+        <v>10</v>
+      </c>
+      <c r="M36" s="10">
+        <v>18</v>
+      </c>
+      <c r="N36" s="10">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1017</v>
+      </c>
+      <c r="K37" s="10">
+        <v>15</v>
+      </c>
+      <c r="L37" s="10">
+        <v>10</v>
+      </c>
+      <c r="M37" s="10">
+        <v>18</v>
+      </c>
+      <c r="N37" s="10">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="10">
+        <v>16280</v>
+      </c>
+      <c r="K38" s="10">
+        <v>238</v>
+      </c>
+      <c r="L38" s="10">
+        <v>249</v>
+      </c>
+      <c r="M38" s="10">
+        <v>283</v>
+      </c>
+      <c r="N38" s="10">
+        <v>256.66666666666663</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
